--- a/Mifos Automation Excels/Client/4495-MS-ACTCTR-NOMEET-ACTGRP-ACTCLIENT-DISJLG02JAN-COLLSHEETON09JAN.xlsx
+++ b/Mifos Automation Excels/Client/4495-MS-ACTCTR-NOMEET-ACTGRP-ACTCLIENT-DISJLG02JAN-COLLSHEETON09JAN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="7"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -236,13 +236,13 @@
     <t>Collection sheet cannot be generated for center/group without attach meeting define</t>
   </si>
   <si>
-    <t>4352-MS-Simple-Group-Loan-Product-Loanproduct</t>
-  </si>
-  <si>
     <t>center4495</t>
   </si>
   <si>
     <t>Groups4495</t>
+  </si>
+  <si>
+    <t>4352-MS-Simple-Group-Loan-Product-Loanproduct-1st</t>
   </si>
 </sst>
 </file>
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -809,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -892,7 +892,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1780,7 +1780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1815,7 +1815,7 @@
         <v>66</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -1823,7 +1823,7 @@
         <v>67</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
